--- a/data/trans_orig/P38B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0177204E-3CE7-4B12-A103-509C7469A30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82917D42-71A4-4793-A9FB-74D3116EA967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{307EEA5E-2A14-4411-A23B-7A3636F47852}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D7FD55A-C073-41F3-9088-C65CD7CAC8D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>86,92%</t>
   </si>
   <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,1321 +145,1315 @@
     <t>84,37%</t>
   </si>
   <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
     <t>83,77%</t>
   </si>
   <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
     <t>89,19%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>10,81%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>83,25%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FCB8A8-8561-4DED-B09C-801903C0A0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAFE9A7-87F5-458B-98AC-DAFC252D5265}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2934,7 +2928,7 @@
         <v>1107</v>
       </c>
       <c r="N22" s="7">
-        <v>1201958</v>
+        <v>1201957</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>116</v>
@@ -3036,7 +3030,7 @@
         <v>1248</v>
       </c>
       <c r="N24" s="7">
-        <v>1348464</v>
+        <v>1348463</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>32</v>
@@ -3247,13 +3241,13 @@
         <v>5901178</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,7 +3274,7 @@
         <v>408</v>
       </c>
       <c r="I29" s="7">
-        <v>432186</v>
+        <v>432185</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>158</v>
@@ -3298,10 +3292,10 @@
         <v>1040107</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>162</v>
@@ -3331,7 +3325,7 @@
         <v>3280</v>
       </c>
       <c r="I30" s="7">
-        <v>3538464</v>
+        <v>3538463</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>32</v>
@@ -3384,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805DCB21-7F12-47F8-BA6A-6B0E91C47697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA6B84B-537D-469C-B832-F348B57E1808}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3851,10 +3845,10 @@
         <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3863,13 @@
         <v>33475</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -3884,13 +3878,13 @@
         <v>25890</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -3899,13 +3893,13 @@
         <v>59364</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3967,13 @@
         <v>335244</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -3988,13 +3982,13 @@
         <v>353234</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>645</v>
@@ -4039,13 +4033,13 @@
         <v>32844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4054,13 +4048,13 @@
         <v>64555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4122,13 @@
         <v>163888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>196</v>
@@ -4143,13 +4137,13 @@
         <v>193520</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>360</v>
@@ -4158,13 +4152,13 @@
         <v>357408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4173,13 @@
         <v>47333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -4194,13 +4188,13 @@
         <v>25067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -4209,13 +4203,13 @@
         <v>72400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4277,13 @@
         <v>211218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>224</v>
@@ -4298,13 +4292,13 @@
         <v>235466</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>432</v>
@@ -4313,13 +4307,13 @@
         <v>446686</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4328,13 @@
         <v>50870</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -4349,13 +4343,13 @@
         <v>35903</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>87</v>
@@ -4364,13 +4358,13 @@
         <v>86772</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4432,13 @@
         <v>428608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>466</v>
@@ -4453,13 +4447,13 @@
         <v>506464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>843</v>
@@ -4468,13 +4462,13 @@
         <v>935071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4483,13 @@
         <v>220371</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -4504,13 +4498,13 @@
         <v>181681</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>374</v>
@@ -4519,13 +4513,13 @@
         <v>402053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4587,13 @@
         <v>688886</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>708</v>
@@ -4608,13 +4602,13 @@
         <v>778854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>1372</v>
@@ -4623,13 +4617,13 @@
         <v>1467740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4638,13 @@
         <v>83024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -4659,13 +4653,13 @@
         <v>45356</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>126</v>
@@ -4674,13 +4668,13 @@
         <v>128380</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>47</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4742,13 @@
         <v>2754545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>2888</v>
@@ -4763,28 +4757,28 @@
         <v>3088706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="M28" s="7">
         <v>5520</v>
       </c>
       <c r="N28" s="7">
-        <v>5843251</v>
+        <v>5843250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4793,13 @@
         <v>609647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>439</v>
@@ -4814,13 +4808,13 @@
         <v>444990</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>1013</v>
@@ -4829,13 +4823,13 @@
         <v>1054638</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,7 +4871,7 @@
         <v>6533</v>
       </c>
       <c r="N30" s="7">
-        <v>6897889</v>
+        <v>6897888</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -4915,7 +4909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C773F776-FCC7-4547-99A1-A5271A7543E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D54087-2C72-4A12-8F9A-55F141FB16D3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4932,7 +4926,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5039,13 +5033,13 @@
         <v>251626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>531</v>
@@ -5054,13 +5048,13 @@
         <v>267080</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>854</v>
@@ -5069,13 +5063,13 @@
         <v>518705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5084,13 @@
         <v>8672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5105,13 +5099,13 @@
         <v>4323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5120,13 +5114,13 @@
         <v>12995</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5188,13 @@
         <v>398745</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>630</v>
@@ -5209,13 +5203,13 @@
         <v>467502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>948</v>
@@ -5224,13 +5218,13 @@
         <v>866246</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5239,13 @@
         <v>119482</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -5260,7 +5254,7 @@
         <v>86440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>351</v>
@@ -5382,10 +5376,10 @@
         <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5394,13 @@
         <v>20735</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5415,13 +5409,13 @@
         <v>10574</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -5430,13 +5424,13 @@
         <v>31310</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5498,13 @@
         <v>287559</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>570</v>
@@ -5519,13 +5513,13 @@
         <v>384994</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>838</v>
@@ -5534,13 +5528,13 @@
         <v>672553</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5549,13 @@
         <v>34681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5570,13 +5564,13 @@
         <v>43163</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -5585,13 +5579,13 @@
         <v>77844</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5653,13 @@
         <v>160932</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>448</v>
@@ -5674,13 +5668,13 @@
         <v>202800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>684</v>
@@ -5689,13 +5683,13 @@
         <v>363732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5704,13 @@
         <v>35816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -5725,13 +5719,13 @@
         <v>28696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -5740,13 +5734,13 @@
         <v>64512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5808,13 @@
         <v>266310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -5829,13 +5823,13 @@
         <v>267243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>808</v>
@@ -5844,13 +5838,13 @@
         <v>533552</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5859,13 @@
         <v>10913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5880,13 +5874,13 @@
         <v>7269</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -5895,13 +5889,13 @@
         <v>18183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5963,13 @@
         <v>524816</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>891</v>
@@ -5984,13 +5978,13 @@
         <v>742356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>1412</v>
@@ -5999,13 +5993,13 @@
         <v>1267172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6014,13 @@
         <v>102123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H23" s="7">
         <v>66</v>
@@ -6035,13 +6029,13 @@
         <v>60949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M23" s="7">
         <v>143</v>
@@ -6050,13 +6044,13 @@
         <v>163072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6118,13 @@
         <v>493921</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>804</v>
@@ -6139,13 +6133,13 @@
         <v>603541</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>1326</v>
@@ -6154,13 +6148,13 @@
         <v>1097462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6169,13 @@
         <v>365507</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>257</v>
@@ -6190,13 +6184,13 @@
         <v>264244</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>497</v>
@@ -6205,13 +6199,13 @@
         <v>629751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6273,13 @@
         <v>2685412</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>4852</v>
@@ -6294,13 +6288,13 @@
         <v>3298225</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>243</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>153</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>21</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>7739</v>
@@ -6309,13 +6303,13 @@
         <v>5983638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6324,13 @@
         <v>697930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H29" s="7">
         <v>504</v>
@@ -6345,13 +6339,13 @@
         <v>505659</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>251</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>31</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>991</v>
@@ -6360,13 +6354,13 @@
         <v>1203588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82917D42-71A4-4793-A9FB-74D3116EA967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C85043-553C-4200-8B6B-E3E8792ABB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D7FD55A-C073-41F3-9088-C65CD7CAC8D5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7DB2370-8CF8-4A25-9AB3-E860D7107A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="478">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -85,1360 +85,1378 @@
     <t>86,92%</t>
   </si>
   <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>91,96%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2015 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
   </si>
   <si>
     <t>11,76%</t>
@@ -1865,7 +1883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAFE9A7-87F5-458B-98AC-DAFC252D5265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5C6E19-2F8F-4472-8AF7-03D0EA5BE6AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2749,10 +2767,10 @@
         <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -2761,13 +2779,13 @@
         <v>246746</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>465</v>
@@ -2776,13 +2794,13 @@
         <v>487309</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2815,13 @@
         <v>33418</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -2812,13 +2830,13 @@
         <v>32312</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -2827,13 +2845,13 @@
         <v>65730</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2907,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2901,13 +2919,13 @@
         <v>564183</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>582</v>
@@ -2916,13 +2934,13 @@
         <v>637774</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>1107</v>
@@ -2931,13 +2949,13 @@
         <v>1201957</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2970,13 @@
         <v>93479</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -2967,13 +2985,13 @@
         <v>53027</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>141</v>
@@ -2982,13 +3000,13 @@
         <v>146506</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3062,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3056,13 +3074,13 @@
         <v>573588</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>595</v>
@@ -3071,13 +3089,13 @@
         <v>647192</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>1117</v>
@@ -3086,13 +3104,13 @@
         <v>1220780</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3125,13 @@
         <v>198415</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>154</v>
@@ -3122,13 +3140,13 @@
         <v>168358</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>343</v>
@@ -3137,13 +3155,13 @@
         <v>366773</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3229,13 @@
         <v>2794901</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>2872</v>
@@ -3226,13 +3244,13 @@
         <v>3106278</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>5472</v>
@@ -3241,13 +3259,13 @@
         <v>5901178</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,28 +3280,28 @@
         <v>607921</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>408</v>
       </c>
       <c r="I29" s="7">
-        <v>432185</v>
+        <v>432186</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>995</v>
@@ -3292,7 +3310,7 @@
         <v>1040107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>161</v>
@@ -3325,7 +3343,7 @@
         <v>3280</v>
       </c>
       <c r="I30" s="7">
-        <v>3538463</v>
+        <v>3538464</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>32</v>
@@ -3378,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA6B84B-537D-469C-B832-F348B57E1808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3352F98-0F23-43D2-9637-23FB43CA9FEC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3842,10 +3860,10 @@
         <v>594590</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>208</v>
@@ -3893,13 +3911,13 @@
         <v>59364</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,7 +4307,7 @@
         <v>224</v>
       </c>
       <c r="I19" s="7">
-        <v>235466</v>
+        <v>235467</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>256</v>
@@ -4391,7 +4409,7 @@
         <v>261</v>
       </c>
       <c r="I21" s="7">
-        <v>271369</v>
+        <v>271370</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>32</v>
@@ -4420,7 +4438,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4575,7 +4593,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4617,13 +4635,13 @@
         <v>1467740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4656,13 @@
         <v>83024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -4653,13 +4671,13 @@
         <v>45356</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>126</v>
@@ -4668,13 +4686,13 @@
         <v>128380</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>47</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4760,13 @@
         <v>2754545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>2888</v>
@@ -4757,28 +4775,28 @@
         <v>3088706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>5520</v>
       </c>
       <c r="N28" s="7">
-        <v>5843250</v>
+        <v>5843251</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4811,13 @@
         <v>609647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>439</v>
@@ -4808,13 +4826,13 @@
         <v>444990</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>1013</v>
@@ -4823,13 +4841,13 @@
         <v>1054638</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4889,7 @@
         <v>6533</v>
       </c>
       <c r="N30" s="7">
-        <v>6897888</v>
+        <v>6897889</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -4909,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D54087-2C72-4A12-8F9A-55F141FB16D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F1D016-0F1B-4683-A123-917E1553B642}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4926,7 +4944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5033,13 +5051,13 @@
         <v>251626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>531</v>
@@ -5048,13 +5066,13 @@
         <v>267080</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>854</v>
@@ -5063,13 +5081,13 @@
         <v>518705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5102,13 @@
         <v>8672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5099,13 +5117,13 @@
         <v>4323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5114,13 +5132,13 @@
         <v>12995</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5206,13 @@
         <v>398745</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>630</v>
@@ -5203,13 +5221,13 @@
         <v>467502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>948</v>
@@ -5218,13 +5236,13 @@
         <v>866246</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5257,13 @@
         <v>119482</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -5254,13 +5272,13 @@
         <v>86440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>89</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>149</v>
@@ -5269,13 +5287,13 @@
         <v>205922</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5343,13 +5361,13 @@
         <v>301505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>526</v>
@@ -5358,13 +5376,13 @@
         <v>362710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>869</v>
@@ -5373,13 +5391,13 @@
         <v>664214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5394,13 +5412,13 @@
         <v>20735</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5409,13 +5427,13 @@
         <v>10574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>369</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -5424,13 +5442,13 @@
         <v>31310</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>233</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,10 +5519,10 @@
         <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>570</v>
@@ -5513,13 +5531,13 @@
         <v>384994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>838</v>
@@ -5528,13 +5546,13 @@
         <v>672553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5567,13 @@
         <v>34681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5564,13 +5582,13 @@
         <v>43163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -5579,13 +5597,13 @@
         <v>77844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,10 +5671,10 @@
         <v>160932</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>256</v>
@@ -5668,13 +5686,13 @@
         <v>202800</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>395</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>684</v>
@@ -5683,13 +5701,13 @@
         <v>363732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5722,13 @@
         <v>35816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -5719,13 +5737,13 @@
         <v>28696</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -5734,13 +5752,13 @@
         <v>64512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,13 +5826,13 @@
         <v>266310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -5823,13 +5841,13 @@
         <v>267243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>808</v>
@@ -5838,13 +5856,13 @@
         <v>533552</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5877,13 @@
         <v>10913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5874,13 +5892,13 @@
         <v>7269</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -5889,13 +5907,13 @@
         <v>18183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +5969,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5963,13 +5981,13 @@
         <v>524816</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>891</v>
@@ -5978,13 +5996,13 @@
         <v>742356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>1412</v>
@@ -5993,13 +6011,13 @@
         <v>1267172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6032,13 @@
         <v>102123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>66</v>
@@ -6029,13 +6047,13 @@
         <v>60949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>434</v>
+        <v>24</v>
       </c>
       <c r="M23" s="7">
         <v>143</v>
@@ -6044,13 +6062,13 @@
         <v>163072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,7 +6124,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6118,13 +6136,13 @@
         <v>493921</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>804</v>
@@ -6133,13 +6151,13 @@
         <v>603541</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>1326</v>
@@ -6148,13 +6166,13 @@
         <v>1097462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6187,13 @@
         <v>365507</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>257</v>
@@ -6184,13 +6202,13 @@
         <v>264244</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>497</v>
@@ -6199,13 +6217,13 @@
         <v>629751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6291,13 @@
         <v>2685412</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>4852</v>
@@ -6288,13 +6306,13 @@
         <v>3298225</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>243</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>7739</v>
@@ -6303,13 +6321,13 @@
         <v>5983638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6342,13 @@
         <v>697930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>504</v>
@@ -6339,13 +6357,13 @@
         <v>505659</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>251</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>991</v>
@@ -6354,13 +6372,13 @@
         <v>1203588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1C85043-553C-4200-8B6B-E3E8792ABB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA57274-EBFC-4A69-B5AC-CC7D2030EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7DB2370-8CF8-4A25-9AB3-E860D7107A5C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC870FF8-04DB-4EFE-A5A4-0C31295DB282}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -85,1258 +85,1261 @@
     <t>86,92%</t>
   </si>
   <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2016 (Tasa respuesta: 99,45%)</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>98,15%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>95,43%</t>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>85,99%</t>
+    <t>86,13%</t>
   </si>
   <si>
     <t>91,63%</t>
@@ -1345,16 +1348,19 @@
     <t>16,29%</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,57%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>11,4%</t>
@@ -1363,115 +1369,97 @@
     <t>8,37%</t>
   </si>
   <si>
-    <t>14,01%</t>
+    <t>13,87%</t>
   </si>
   <si>
     <t>57,47%</t>
   </si>
   <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>42,53%</t>
   </si>
   <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5C6E19-2F8F-4472-8AF7-03D0EA5BE6AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE112142-E32F-4B15-8EDC-AE2B4CF60B09}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2767,10 +2755,10 @@
         <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -2779,13 +2767,13 @@
         <v>246746</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>465</v>
@@ -2794,13 +2782,13 @@
         <v>487309</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2803,13 @@
         <v>33418</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -2830,13 +2818,13 @@
         <v>32312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -2845,13 +2833,13 @@
         <v>65730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,7 +2895,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2919,13 +2907,13 @@
         <v>564183</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>582</v>
@@ -2934,28 +2922,28 @@
         <v>637774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>1107</v>
       </c>
       <c r="N22" s="7">
-        <v>1201957</v>
+        <v>1201958</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2958,13 @@
         <v>93479</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -2985,13 +2973,13 @@
         <v>53027</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>141</v>
@@ -3000,13 +2988,13 @@
         <v>146506</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,7 +3036,7 @@
         <v>1248</v>
       </c>
       <c r="N24" s="7">
-        <v>1348463</v>
+        <v>1348464</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>32</v>
@@ -3062,7 +3050,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3074,13 +3062,13 @@
         <v>573588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>595</v>
@@ -3089,13 +3077,13 @@
         <v>647192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>1117</v>
@@ -3104,13 +3092,13 @@
         <v>1220780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3113,13 @@
         <v>198415</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>154</v>
@@ -3140,13 +3128,13 @@
         <v>168358</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>343</v>
@@ -3155,13 +3143,13 @@
         <v>366773</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3217,13 @@
         <v>2794901</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>2872</v>
@@ -3244,13 +3232,13 @@
         <v>3106278</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>5472</v>
@@ -3259,13 +3247,13 @@
         <v>5901178</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3268,13 @@
         <v>607921</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>408</v>
@@ -3295,13 +3283,13 @@
         <v>432186</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>995</v>
@@ -3310,10 +3298,10 @@
         <v>1040107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>162</v>
@@ -3396,7 +3384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3352F98-0F23-43D2-9637-23FB43CA9FEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD12B75-E1F4-4FD6-8A13-2367E910806D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,13 +3848,13 @@
         <v>594590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3869,13 @@
         <v>33475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -3896,13 +3884,13 @@
         <v>25890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -3911,13 +3899,13 @@
         <v>59364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3973,13 @@
         <v>335244</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -4000,13 +3988,13 @@
         <v>353234</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>645</v>
@@ -4051,13 +4039,13 @@
         <v>32844</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4066,13 +4054,13 @@
         <v>64555</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4128,13 @@
         <v>163888</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>196</v>
@@ -4155,13 +4143,13 @@
         <v>193520</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>360</v>
@@ -4170,13 +4158,13 @@
         <v>357408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4179,13 @@
         <v>47333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -4206,13 +4194,13 @@
         <v>25067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -4221,13 +4209,13 @@
         <v>72400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,28 +4283,28 @@
         <v>211218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>224</v>
       </c>
       <c r="I19" s="7">
-        <v>235467</v>
+        <v>235466</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>432</v>
@@ -4325,13 +4313,13 @@
         <v>446686</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4334,13 @@
         <v>50870</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -4361,13 +4349,13 @@
         <v>35903</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>87</v>
@@ -4376,13 +4364,13 @@
         <v>86772</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4397,7 @@
         <v>261</v>
       </c>
       <c r="I21" s="7">
-        <v>271370</v>
+        <v>271369</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>32</v>
@@ -4438,7 +4426,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4450,13 +4438,13 @@
         <v>428608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>466</v>
@@ -4465,13 +4453,13 @@
         <v>506464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>843</v>
@@ -4480,13 +4468,13 @@
         <v>935071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4489,13 @@
         <v>220371</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -4516,13 +4504,13 @@
         <v>181681</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>374</v>
@@ -4531,13 +4519,13 @@
         <v>402053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,7 +4581,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4605,13 +4593,13 @@
         <v>688886</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>708</v>
@@ -4620,13 +4608,13 @@
         <v>778854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>1372</v>
@@ -4635,13 +4623,13 @@
         <v>1467740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4644,13 @@
         <v>83024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -4671,13 +4659,13 @@
         <v>45356</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>126</v>
@@ -4686,13 +4674,13 @@
         <v>128380</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4748,13 @@
         <v>2754545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>2888</v>
@@ -4775,13 +4763,13 @@
         <v>3088706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>5520</v>
@@ -4790,13 +4778,13 @@
         <v>5843251</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4799,13 @@
         <v>609647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H29" s="7">
         <v>439</v>
@@ -4826,13 +4814,13 @@
         <v>444990</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M29" s="7">
         <v>1013</v>
@@ -4841,13 +4829,13 @@
         <v>1054638</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F1D016-0F1B-4683-A123-917E1553B642}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B82F53C-0D28-4969-9700-99F353ABBB48}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4944,7 +4932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5051,13 +5039,13 @@
         <v>251626</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>531</v>
@@ -5066,13 +5054,13 @@
         <v>267080</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>854</v>
@@ -5081,13 +5069,13 @@
         <v>518705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5090,13 @@
         <v>8672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5117,13 +5105,13 @@
         <v>4323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -5132,13 +5120,13 @@
         <v>12995</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5194,13 @@
         <v>398745</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>630</v>
@@ -5221,13 +5209,13 @@
         <v>467502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>948</v>
@@ -5236,13 +5224,13 @@
         <v>866246</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5245,13 @@
         <v>119482</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
@@ -5272,13 +5260,13 @@
         <v>86440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>149</v>
@@ -5287,13 +5275,13 @@
         <v>205922</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5349,13 @@
         <v>301505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>526</v>
@@ -5376,13 +5364,13 @@
         <v>362710</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>869</v>
@@ -5391,13 +5379,13 @@
         <v>664214</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5400,13 @@
         <v>20735</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5427,13 +5415,13 @@
         <v>10574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -5442,13 +5430,13 @@
         <v>31310</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5504,13 @@
         <v>287559</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>570</v>
@@ -5531,13 +5519,13 @@
         <v>384994</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>838</v>
@@ -5546,13 +5534,13 @@
         <v>672553</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5555,13 @@
         <v>34681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5582,13 +5570,13 @@
         <v>43163</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -5597,13 +5585,13 @@
         <v>77844</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5659,13 @@
         <v>160932</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>448</v>
@@ -5686,13 +5674,13 @@
         <v>202800</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M16" s="7">
         <v>684</v>
@@ -5701,13 +5689,13 @@
         <v>363732</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,10 +5710,10 @@
         <v>35816</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>401</v>
@@ -5969,7 +5957,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5999,10 +5987,10 @@
         <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>16</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>1412</v>
@@ -6011,13 +5999,13 @@
         <v>1267172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6032,13 +6020,13 @@
         <v>102123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>66</v>
@@ -6047,13 +6035,13 @@
         <v>60949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>24</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>143</v>
@@ -6062,13 +6050,13 @@
         <v>163072</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,7 +6112,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6136,13 +6124,13 @@
         <v>493921</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>804</v>
@@ -6151,13 +6139,13 @@
         <v>603541</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="M25" s="7">
         <v>1326</v>
@@ -6166,13 +6154,13 @@
         <v>1097462</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6175,13 @@
         <v>365507</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H26" s="7">
         <v>257</v>
@@ -6202,13 +6190,13 @@
         <v>264244</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M26" s="7">
         <v>497</v>
@@ -6217,13 +6205,13 @@
         <v>629751</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6279,13 @@
         <v>2685412</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H28" s="7">
         <v>4852</v>
@@ -6306,13 +6294,13 @@
         <v>3298225</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>153</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>21</v>
       </c>
       <c r="M28" s="7">
         <v>7739</v>
@@ -6321,13 +6309,13 @@
         <v>5983638</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6330,13 @@
         <v>697930</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>504</v>
@@ -6357,13 +6345,13 @@
         <v>505659</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>991</v>
@@ -6372,13 +6360,13 @@
         <v>1203588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P38B-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA57274-EBFC-4A69-B5AC-CC7D2030EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01C3D2A1-A3AE-4964-8F87-3A23A1DC5ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC870FF8-04DB-4EFE-A5A4-0C31295DB282}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F778D3EC-3D86-4C1A-A46B-4478DBE97210}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="487">
   <si>
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2012 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -73,12 +73,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -136,9 +190,6 @@
     <t>11,78%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -199,58 +250,58 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -805,9 +856,6 @@
     <t>90,4%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
     <t>80,37%</t>
   </si>
   <si>
@@ -832,9 +880,6 @@
     <t>17,28%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
     <t>13,21%</t>
   </si>
   <si>
@@ -1000,466 +1045,460 @@
     <t>Población según si le han medido los niveles de colesterol por prescripción médica en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>96,67%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE112142-E32F-4B15-8EDC-AE2B4CF60B09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A606BC-A034-4DF7-9EDB-D7324A712834}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1989,88 +2028,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="D4" s="7">
+        <v>242994</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="I4" s="7">
+        <v>256569</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>459</v>
+      </c>
+      <c r="N4" s="7">
+        <v>499562</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="7">
+        <v>46302</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I5" s="7">
+        <v>29500</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="N5" s="7">
+        <v>75802</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,48 +2130,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>276</v>
+      </c>
+      <c r="D6" s="7">
+        <v>289296</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="I6" s="7">
+        <v>286069</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>531</v>
+      </c>
+      <c r="N6" s="7">
+        <v>575364</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2132,13 +2189,13 @@
         <v>437653</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>445</v>
@@ -2147,13 +2204,13 @@
         <v>487554</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>848</v>
@@ -2162,19 +2219,19 @@
         <v>925207</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>67</v>
@@ -2183,13 +2240,13 @@
         <v>65841</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>33</v>
@@ -2198,13 +2255,13 @@
         <v>34185</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>100</v>
@@ -2213,13 +2270,13 @@
         <v>100026</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2291,13 @@
         <v>503494</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>478</v>
@@ -2249,13 +2306,13 @@
         <v>521739</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>948</v>
@@ -2264,18 +2321,18 @@
         <v>1025233</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2287,13 +2344,13 @@
         <v>273406</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>280</v>
@@ -2302,13 +2359,13 @@
         <v>301689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>547</v>
@@ -2317,19 +2374,19 @@
         <v>575096</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>52</v>
@@ -2338,13 +2395,13 @@
         <v>50640</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>37</v>
@@ -2353,13 +2410,13 @@
         <v>39331</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>89</v>
@@ -2368,13 +2425,13 @@
         <v>89970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2446,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2404,13 +2461,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -2419,117 +2476,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="D13" s="7">
-        <v>528367</v>
+        <v>285372</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>539</v>
+        <v>312</v>
       </c>
       <c r="I13" s="7">
-        <v>584335</v>
+        <v>327767</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1032</v>
+        <v>573</v>
       </c>
       <c r="N13" s="7">
-        <v>1112701</v>
+        <v>613139</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D14" s="7">
-        <v>131686</v>
+        <v>85385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
+        <v>56</v>
+      </c>
+      <c r="I14" s="7">
+        <v>57945</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="7">
-        <v>87446</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="M14" s="7">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="N14" s="7">
-        <v>219132</v>
+        <v>143330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,54 +2595,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>617</v>
+        <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>660053</v>
+        <v>370757</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>623</v>
+        <v>368</v>
       </c>
       <c r="I15" s="7">
-        <v>671781</v>
+        <v>385712</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1240</v>
+        <v>709</v>
       </c>
       <c r="N15" s="7">
-        <v>1331833</v>
+        <v>756469</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2597,13 +2654,13 @@
         <v>177141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>193</v>
@@ -2612,13 +2669,13 @@
         <v>200988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>356</v>
@@ -2627,19 +2684,19 @@
         <v>378129</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>32</v>
@@ -2648,13 +2705,13 @@
         <v>34442</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -2663,13 +2720,13 @@
         <v>17527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>50</v>
@@ -2678,13 +2735,13 @@
         <v>51969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2756,13 @@
         <v>211583</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>211</v>
@@ -2714,13 +2771,13 @@
         <v>218515</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>406</v>
@@ -2729,18 +2786,18 @@
         <v>430098</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2752,13 +2809,13 @@
         <v>240563</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>238</v>
@@ -2767,13 +2824,13 @@
         <v>246746</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>465</v>
@@ -2782,19 +2839,19 @@
         <v>487309</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>34</v>
@@ -2803,13 +2860,13 @@
         <v>33418</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -2818,13 +2875,13 @@
         <v>32312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -2833,13 +2890,13 @@
         <v>65730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2911,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2869,13 +2926,13 @@
         <v>279058</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2884,18 +2941,18 @@
         <v>553039</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2907,13 +2964,13 @@
         <v>564183</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>582</v>
@@ -2922,34 +2979,34 @@
         <v>637774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>1107</v>
       </c>
       <c r="N22" s="7">
-        <v>1201958</v>
+        <v>1201957</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>89</v>
@@ -2958,13 +3015,13 @@
         <v>93479</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>52</v>
@@ -2973,13 +3030,13 @@
         <v>53027</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>141</v>
@@ -2988,13 +3045,13 @@
         <v>146506</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,13 +3066,13 @@
         <v>657662</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>634</v>
@@ -3024,33 +3081,33 @@
         <v>690801</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1248</v>
       </c>
       <c r="N24" s="7">
-        <v>1348464</v>
+        <v>1348463</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3062,13 +3119,13 @@
         <v>573588</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>595</v>
@@ -3077,13 +3134,13 @@
         <v>647192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>1117</v>
@@ -3092,19 +3149,19 @@
         <v>1220780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>189</v>
@@ -3113,13 +3170,13 @@
         <v>198415</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>154</v>
@@ -3128,13 +3185,13 @@
         <v>168358</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>343</v>
@@ -3143,13 +3200,13 @@
         <v>366773</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3221,13 @@
         <v>772003</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>749</v>
@@ -3179,13 +3236,13 @@
         <v>815550</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1460</v>
@@ -3194,13 +3251,13 @@
         <v>1587553</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3274,13 @@
         <v>2794901</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2872</v>
@@ -3232,13 +3289,13 @@
         <v>3106278</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>5472</v>
@@ -3247,19 +3304,19 @@
         <v>5901178</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>587</v>
@@ -3268,28 +3325,28 @@
         <v>607921</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>408</v>
       </c>
       <c r="I29" s="7">
-        <v>432186</v>
+        <v>432185</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>995</v>
@@ -3298,13 +3355,13 @@
         <v>1040107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,28 +3376,28 @@
         <v>3402822</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3280</v>
       </c>
       <c r="I30" s="7">
-        <v>3538464</v>
+        <v>3538463</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6467</v>
@@ -3349,18 +3406,18 @@
         <v>6941285</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD12B75-E1F4-4FD6-8A13-2367E910806D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CEDC50-9CD4-45FA-A8D4-CEDE21B73D52}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3401,7 +3458,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3508,13 +3565,13 @@
         <v>203855</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
@@ -3523,13 +3580,13 @@
         <v>216062</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>392</v>
@@ -3538,19 +3595,19 @@
         <v>419917</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>77</v>
@@ -3559,13 +3616,13 @@
         <v>85065</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
         <v>69</v>
@@ -3574,13 +3631,13 @@
         <v>71756</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
         <v>146</v>
@@ -3589,13 +3646,13 @@
         <v>156821</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,13 +3667,13 @@
         <v>288920</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>276</v>
@@ -3625,13 +3682,13 @@
         <v>287818</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>538</v>
@@ -3640,18 +3697,18 @@
         <v>576738</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3663,13 +3720,13 @@
         <v>437755</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>457</v>
@@ -3678,13 +3735,13 @@
         <v>495605</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>872</v>
@@ -3693,19 +3750,19 @@
         <v>933360</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>54</v>
@@ -3714,13 +3771,13 @@
         <v>57799</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -3729,13 +3786,13 @@
         <v>26494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>80</v>
@@ -3744,13 +3801,13 @@
         <v>84293</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,13 +3822,13 @@
         <v>495554</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>483</v>
@@ -3780,13 +3837,13 @@
         <v>522099</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -3795,18 +3852,18 @@
         <v>1017653</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3818,13 +3875,13 @@
         <v>285090</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>305</v>
@@ -3833,13 +3890,13 @@
         <v>309500</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>604</v>
@@ -3848,19 +3905,19 @@
         <v>594590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>36</v>
@@ -3869,13 +3926,13 @@
         <v>33475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -3884,13 +3941,13 @@
         <v>25890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -3899,13 +3956,13 @@
         <v>59364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3977,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>331</v>
@@ -3935,13 +3992,13 @@
         <v>335390</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3950,18 +4007,18 @@
         <v>653954</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3973,13 +4030,13 @@
         <v>335244</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -3988,13 +4045,13 @@
         <v>353234</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>645</v>
@@ -4003,19 +4060,19 @@
         <v>688478</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>31</v>
@@ -4024,13 +4081,13 @@
         <v>31711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -4039,13 +4096,13 @@
         <v>32844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4054,13 +4111,13 @@
         <v>64555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4132,13 @@
         <v>366955</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>357</v>
@@ -4090,13 +4147,13 @@
         <v>386078</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>708</v>
@@ -4105,18 +4162,18 @@
         <v>753033</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4128,13 +4185,13 @@
         <v>163888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>196</v>
@@ -4143,13 +4200,13 @@
         <v>193520</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="M16" s="7">
         <v>360</v>
@@ -4158,19 +4215,19 @@
         <v>357408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>48</v>
@@ -4179,13 +4236,13 @@
         <v>47333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -4194,13 +4251,13 @@
         <v>25067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -4209,13 +4266,13 @@
         <v>72400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,13 +4287,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -4245,13 +4302,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -4260,18 +4317,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4283,13 +4340,13 @@
         <v>211218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>224</v>
@@ -4298,13 +4355,13 @@
         <v>235466</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>432</v>
@@ -4313,19 +4370,19 @@
         <v>446686</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>50</v>
@@ -4334,13 +4391,13 @@
         <v>50870</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -4349,13 +4406,13 @@
         <v>35903</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>87</v>
@@ -4364,13 +4421,13 @@
         <v>86772</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4442,13 @@
         <v>262088</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>261</v>
@@ -4400,13 +4457,13 @@
         <v>271369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>519</v>
@@ -4415,18 +4472,18 @@
         <v>533458</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4438,13 +4495,13 @@
         <v>428608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>466</v>
@@ -4453,13 +4510,13 @@
         <v>506464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>843</v>
@@ -4468,19 +4525,19 @@
         <v>935071</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>197</v>
@@ -4489,13 +4546,13 @@
         <v>220371</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -4504,13 +4561,13 @@
         <v>181681</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>374</v>
@@ -4519,13 +4576,13 @@
         <v>402053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4597,13 @@
         <v>648979</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>643</v>
@@ -4555,13 +4612,13 @@
         <v>688145</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1217</v>
@@ -4570,18 +4627,18 @@
         <v>1337124</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4593,13 +4650,13 @@
         <v>688886</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>708</v>
@@ -4608,13 +4665,13 @@
         <v>778854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>1372</v>
@@ -4623,19 +4680,19 @@
         <v>1467740</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>81</v>
@@ -4644,13 +4701,13 @@
         <v>83024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="H26" s="7">
         <v>45</v>
@@ -4659,13 +4716,13 @@
         <v>45356</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>126</v>
@@ -4674,13 +4731,13 @@
         <v>128380</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4752,13 @@
         <v>771910</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>753</v>
@@ -4710,13 +4767,13 @@
         <v>824210</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1498</v>
@@ -4725,13 +4782,13 @@
         <v>1596120</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,16 +4802,16 @@
         <v>2632</v>
       </c>
       <c r="D28" s="7">
-        <v>2754545</v>
+        <v>2754546</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>2888</v>
@@ -4763,34 +4820,34 @@
         <v>3088706</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>5520</v>
       </c>
       <c r="N28" s="7">
-        <v>5843251</v>
+        <v>5843250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>574</v>
@@ -4799,13 +4856,13 @@
         <v>609647</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="H29" s="7">
         <v>439</v>
@@ -4814,13 +4871,13 @@
         <v>444990</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>1013</v>
@@ -4829,13 +4886,13 @@
         <v>1054638</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,16 +4904,16 @@
         <v>3206</v>
       </c>
       <c r="D30" s="7">
-        <v>3364192</v>
+        <v>3364193</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3327</v>
@@ -4865,33 +4922,33 @@
         <v>3533696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6533</v>
       </c>
       <c r="N30" s="7">
-        <v>6897889</v>
+        <v>6897888</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4915,7 +4972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B82F53C-0D28-4969-9700-99F353ABBB48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CB778A-B634-4925-A29A-9BB524DB23B8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4932,7 +4989,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5036,97 +5093,97 @@
         <v>323</v>
       </c>
       <c r="D4" s="7">
-        <v>251626</v>
+        <v>300452</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>531</v>
       </c>
       <c r="I4" s="7">
-        <v>267080</v>
+        <v>284965</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>854</v>
       </c>
       <c r="N4" s="7">
-        <v>518705</v>
+        <v>585416</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>8672</v>
+        <v>10991</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>4323</v>
+        <v>4670</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>12995</v>
+        <v>15661</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,51 +5195,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5191,97 +5248,97 @@
         <v>318</v>
       </c>
       <c r="D7" s="7">
-        <v>398745</v>
+        <v>390202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>630</v>
       </c>
       <c r="I7" s="7">
-        <v>467502</v>
+        <v>434115</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>948</v>
       </c>
       <c r="N7" s="7">
-        <v>866246</v>
+        <v>824317</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>119482</v>
+        <v>127191</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>86</v>
       </c>
       <c r="I8" s="7">
-        <v>86440</v>
+        <v>80288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>149</v>
       </c>
       <c r="N8" s="7">
-        <v>205922</v>
+        <v>207479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,51 +5350,51 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553942</v>
+        <v>514403</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072168</v>
+        <v>1031796</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5346,97 +5403,97 @@
         <v>343</v>
       </c>
       <c r="D10" s="7">
-        <v>301505</v>
+        <v>294888</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="H10" s="7">
         <v>526</v>
       </c>
       <c r="I10" s="7">
-        <v>362710</v>
+        <v>339171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="M10" s="7">
         <v>869</v>
       </c>
       <c r="N10" s="7">
-        <v>664214</v>
+        <v>634059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>20735</v>
+        <v>21162</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>10574</v>
+        <v>9957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
       </c>
       <c r="N11" s="7">
-        <v>31310</v>
+        <v>31119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,51 +5505,51 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5501,97 +5558,97 @@
         <v>268</v>
       </c>
       <c r="D13" s="7">
-        <v>287559</v>
+        <v>276343</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>570</v>
       </c>
       <c r="I13" s="7">
-        <v>384994</v>
+        <v>379795</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="M13" s="7">
         <v>838</v>
       </c>
       <c r="N13" s="7">
-        <v>672553</v>
+        <v>656138</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>34681</v>
+        <v>36214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>43163</v>
+        <v>95542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
       </c>
       <c r="N14" s="7">
-        <v>77844</v>
+        <v>131755</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,51 +5660,51 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428157</v>
+        <v>475337</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750397</v>
+        <v>787893</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5656,97 +5713,97 @@
         <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>160932</v>
+        <v>146412</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>448</v>
       </c>
       <c r="I16" s="7">
-        <v>202800</v>
+        <v>183687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>684</v>
       </c>
       <c r="N16" s="7">
-        <v>363732</v>
+        <v>330099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>35816</v>
+        <v>32330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>28696</v>
+        <v>24587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>68</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
       </c>
       <c r="N17" s="7">
-        <v>64512</v>
+        <v>56917</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,51 +5815,51 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5811,97 +5868,97 @@
         <v>356</v>
       </c>
       <c r="D19" s="7">
-        <v>266310</v>
+        <v>258554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
       </c>
       <c r="I19" s="7">
-        <v>267243</v>
+        <v>249192</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>808</v>
       </c>
       <c r="N19" s="7">
-        <v>533552</v>
+        <v>507746</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>303</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>15</v>
       </c>
       <c r="D20" s="7">
-        <v>10913</v>
+        <v>11082</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>7269</v>
+        <v>6771</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
       </c>
       <c r="N20" s="7">
-        <v>18183</v>
+        <v>17853</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,51 +5970,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274512</v>
+        <v>255963</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>551735</v>
+        <v>525599</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5966,97 +6023,97 @@
         <v>521</v>
       </c>
       <c r="D22" s="7">
-        <v>524816</v>
+        <v>513588</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
         <v>891</v>
       </c>
       <c r="I22" s="7">
-        <v>742356</v>
+        <v>791458</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
         <v>1412</v>
       </c>
       <c r="N22" s="7">
-        <v>1267172</v>
+        <v>1305045</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>77</v>
       </c>
       <c r="D23" s="7">
-        <v>102123</v>
+        <v>109915</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="H23" s="7">
         <v>66</v>
       </c>
       <c r="I23" s="7">
-        <v>60949</v>
+        <v>56950</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>143</v>
       </c>
       <c r="N23" s="7">
-        <v>163072</v>
+        <v>166866</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,51 +6125,51 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626939</v>
+        <v>623503</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>957</v>
       </c>
       <c r="I24" s="7">
-        <v>803305</v>
+        <v>848408</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1430244</v>
+        <v>1471911</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6121,97 +6178,97 @@
         <v>522</v>
       </c>
       <c r="D25" s="7">
-        <v>493921</v>
+        <v>420807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="H25" s="7">
         <v>804</v>
       </c>
       <c r="I25" s="7">
-        <v>603541</v>
+        <v>505423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="M25" s="7">
         <v>1326</v>
       </c>
       <c r="N25" s="7">
-        <v>1097462</v>
+        <v>926230</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>240</v>
       </c>
       <c r="D26" s="7">
-        <v>365507</v>
+        <v>507913</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="H26" s="7">
         <v>257</v>
       </c>
       <c r="I26" s="7">
-        <v>264244</v>
+        <v>211758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="M26" s="7">
         <v>497</v>
       </c>
       <c r="N26" s="7">
-        <v>629751</v>
+        <v>719672</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,46 +6280,46 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>867785</v>
+        <v>717181</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1727213</v>
+        <v>1645902</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,97 +6333,97 @@
         <v>2887</v>
       </c>
       <c r="D28" s="7">
-        <v>2685412</v>
+        <v>2601246</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H28" s="7">
         <v>4852</v>
       </c>
       <c r="I28" s="7">
-        <v>3298225</v>
+        <v>3167804</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>21</v>
+        <v>477</v>
       </c>
       <c r="M28" s="7">
         <v>7739</v>
       </c>
       <c r="N28" s="7">
-        <v>5983638</v>
+        <v>5769048</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>478</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>487</v>
       </c>
       <c r="D29" s="7">
-        <v>697930</v>
+        <v>856798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="H29" s="7">
         <v>504</v>
       </c>
       <c r="I29" s="7">
-        <v>505659</v>
+        <v>490524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>31</v>
+        <v>484</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>991</v>
       </c>
       <c r="N29" s="7">
-        <v>1203588</v>
+        <v>1347323</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>485</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>275</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,51 +6435,51 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383342</v>
+        <v>3458044</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5356</v>
       </c>
       <c r="I30" s="7">
-        <v>3803884</v>
+        <v>3658328</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8730</v>
       </c>
       <c r="N30" s="7">
-        <v>7187226</v>
+        <v>7116371</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
